--- a/Demo/Data/2_loc_auto_key/Output/Rule/R_TC.xlsx
+++ b/Demo/Data/2_loc_auto_key/Output/Rule/R_TC.xlsx
@@ -75,7 +75,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="e35eac85-64e2-4953-a4f4-be3da09ef782" xfId="1"/>
+    <cellStyle name="e54fe498-f2ff-4e34-844f-0434833b38ee" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/Demo/Data/2_loc_auto_key/Output/Rule/R_TC.xlsx
+++ b/Demo/Data/2_loc_auto_key/Output/Rule/R_TC.xlsx
@@ -75,7 +75,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="e54fe498-f2ff-4e34-844f-0434833b38ee" xfId="1"/>
+    <cellStyle name="6b907d27-c269-4ab8-a29f-c26fe3e1ce7f" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
